--- a/presnetation_plan.xlsx
+++ b/presnetation_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\sandrews\mod8\module_8_lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04FC2FBB-487F-4DC5-AD48-38E807916518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6652E884-3D51-4289-B4A6-5F53CA30DF11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{3DA7D857-29A4-4C81-AA8A-5BB5B6BFBE73}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
